--- a/tests/fixtures/invalid-data.xlsx
+++ b/tests/fixtures/invalid-data.xlsx
@@ -1,102 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_utils/tests/schema/fixtures/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13965" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Leaves" sheetId="3" r:id="rId1"/>
-    <sheet name="Normal records" sheetId="6" r:id="rId2"/>
-    <sheet name="Transposed" sheetId="5" r:id="rId3"/>
+    <sheet name="!Leaves" sheetId="3" r:id="rId1"/>
+    <sheet name="!Normal records" sheetId="6" r:id="rId2"/>
+    <sheet name="!Transposed" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leaves!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Leaves'!$A$2:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Val1</t>
-  </si>
-  <si>
-    <t>Val2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>!!ObjTables TableType='Data' ModelId='Leaf'</t>
+  </si>
+  <si>
+    <t>!Id</t>
+  </si>
+  <si>
+    <t>!Nodes</t>
+  </si>
+  <si>
+    <t>!Val1</t>
+  </si>
+  <si>
+    <t>!Val2</t>
+  </si>
+  <si>
+    <t>!Onetomany rows</t>
+  </si>
+  <si>
+    <t>!Onetomany inlines</t>
+  </si>
+  <si>
+    <t>leaf_0_0</t>
   </si>
   <si>
     <t>node_0</t>
   </si>
   <si>
+    <t>row_0_0, row_0_1</t>
+  </si>
+  <si>
+    <t>inline_0_0, inline_0_1</t>
+  </si>
+  <si>
+    <t>leaf_0_1</t>
+  </si>
+  <si>
+    <t>row_1_0, row_1_1</t>
+  </si>
+  <si>
+    <t>inline_1_0, inline_1_1</t>
+  </si>
+  <si>
+    <t>leaf_1_0</t>
+  </si>
+  <si>
     <t>node_1</t>
   </si>
   <si>
+    <t>row_2_0, row_2_1</t>
+  </si>
+  <si>
+    <t>inline_2_0, inline_2_1</t>
+  </si>
+  <si>
+    <t>leaf_1_1</t>
+  </si>
+  <si>
+    <t>row_3_0, row_3_1</t>
+  </si>
+  <si>
+    <t>inline_3_0, inline_3_1</t>
+  </si>
+  <si>
     <t>node_2</t>
   </si>
   <si>
-    <t>Nodes</t>
-  </si>
-  <si>
-    <t>Onetomany rows</t>
-  </si>
-  <si>
-    <t>Onetomany inlines</t>
-  </si>
-  <si>
-    <t>leaf_0_0</t>
-  </si>
-  <si>
-    <t>row_0_0, row_0_1</t>
-  </si>
-  <si>
-    <t>inline_0_0, inline_0_1</t>
-  </si>
-  <si>
-    <t>leaf_0_1</t>
-  </si>
-  <si>
-    <t>row_1_0, row_1_1</t>
-  </si>
-  <si>
-    <t>inline_1_0, inline_1_1</t>
-  </si>
-  <si>
-    <t>leaf_1_0</t>
-  </si>
-  <si>
-    <t>row_2_0, row_2_1</t>
-  </si>
-  <si>
-    <t>inline_2_0, inline_2_1</t>
-  </si>
-  <si>
-    <t>leaf_1_1</t>
-  </si>
-  <si>
-    <t>row_3_0, row_3_1</t>
-  </si>
-  <si>
-    <t>inline_3_0, inline_3_1</t>
-  </si>
-  <si>
     <t>row_4_0, row_4_1</t>
   </si>
   <si>
@@ -112,58 +102,215 @@
     <t>inline_5_0, inline_5_1</t>
   </si>
   <si>
+    <t>!!ObjTables TableType='Data' ModelId='NormalRecord'</t>
+  </si>
+  <si>
+    <t>!id with underscores</t>
+  </si>
+  <si>
+    <t>!val</t>
+  </si>
+  <si>
+    <t>t_1</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>t_2</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>t_1</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>t_2</t>
-  </si>
-  <si>
     <t>hi mom</t>
   </si>
   <si>
-    <t>id with underscores</t>
+    <t>!!ObjTables TableType='Data' ModelId='Transposed'</t>
+  </si>
+  <si>
+    <t>!id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,10 +320,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,24 +518,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -216,10 +839,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -490,247 +1113,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D6" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D7" s="3">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D8" s="3">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7"/>
+  <autoFilter ref="A2:F8">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>32</v>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/fixtures/invalid-data.xlsx
+++ b/tests/fixtures/invalid-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" activeTab="1"/>
+    <workbookView windowWidth="20295" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!Leaves" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Leaf'</t>
+    <t>!!ObjTables Type='Data' Id='Leaf'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -102,7 +102,7 @@
     <t>inline_5_0, inline_5_1</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='NormalRecord'</t>
+    <t>!!ObjTables Type='Data' Id='NormalRecord'</t>
   </si>
   <si>
     <t>!id with underscores</t>
@@ -126,7 +126,7 @@
     <t>hi mom</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Transposed'</t>
+    <t>!!ObjTables Type='Data' Id='Transposed'</t>
   </si>
   <si>
     <t>!id</t>
@@ -137,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -176,6 +176,104 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,121 +288,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,37 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,139 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,80 +516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,147 +537,221 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/tests/fixtures/invalid-data.xlsx
+++ b/tests/fixtures/invalid-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Leaves" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,18 +11,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Transposed" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!Leaves'!$A$2:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Leaves'!$A$2:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -500,214 +500,214 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="10" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1002,11 +1002,11 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A17" pane="bottomRight" sqref="A17"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1014,18 +1014,18 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Leaf'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3">
+          <t>!!ObjTables type='Data' id='Leaf'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>leaf_0_0</t>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>leaf_0_1</t>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>leaf_1_0</t>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>leaf_1_1</t>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F8"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1244,7 +1244,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='NormalRecord'</t>
+          <t>!!ObjTables type='Data' id='NormalRecord'</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1313,7 +1313,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Transposed'</t>
+          <t>!!ObjTables type='Data' id='Transposed'</t>
         </is>
       </c>
     </row>
@@ -1357,6 +1357,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/fixtures/invalid-data.xlsx
+++ b/tests/fixtures/invalid-data.xlsx
@@ -1021,7 +1021,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Leaf'</t>
+          <t>!!ObjTables type='Data' class='Leaf'</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='NormalRecord'</t>
+          <t>!!ObjTables type='Data' class='NormalRecord'</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Transposed'</t>
+          <t>!!ObjTables type='Data' class='Transposed'</t>
         </is>
       </c>
     </row>
